--- a/site/Manual/source/CZ/tab/parameters.xlsx
+++ b/site/Manual/source/CZ/tab/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId2"/>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">2 x Erni šroubovací svorky M5 PRESSFIT</t>
   </si>
   <si>
-    <t xml:space="preserve">1 x 5pin MOLEX micro-lock, 505570-0401</t>
+    <t xml:space="preserve">1 x 5pin MOLEX micro-lock, 505570-0501</t>
   </si>
   <si>
     <t xml:space="preserve">3 x Erni šroubovací svorky M5 PRESSFIT </t>
@@ -300,11 +300,11 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.92"/>
@@ -512,11 +512,11 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
@@ -728,7 +728,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>

--- a/site/Manual/source/CZ/tab/parameters.xlsx
+++ b/site/Manual/source/CZ/tab/parameters.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="TGZ-S-48-50_100" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="TGZ-D-48-50_100" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="TGZ-D-48-50_100" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TGZ-S-48-50_100" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="TGZ-S-48-100_250" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="67">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -150,6 +151,33 @@
     <t xml:space="preserve">1x 12pin WEIDMÜLLER  B2CF 3.50/12/180</t>
   </si>
   <si>
+    <t xml:space="preserve">4,8 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 50 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 100 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x 1pin WAGO push-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x 1pin WAGO push-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brzdový konektor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 × 6pin WEIDMÜLLER  BLF 5.00HC/06/180F</t>
+  </si>
+  <si>
     <t xml:space="preserve">2,4 kW</t>
   </si>
   <si>
@@ -171,34 +199,31 @@
     <t xml:space="preserve">3 x Erni šroubovací svorky M5 PRESSFIT </t>
   </si>
   <si>
-    <t xml:space="preserve">Brzdový konektor</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 x 4pin MOLEX micro-lock, 505570-0501</t>
   </si>
   <si>
-    <t xml:space="preserve">4,8 kW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 x 50 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 x 100 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 x 1pin WAGO push-in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 x 1pin WAGO push-in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 × 6pin WEIDMÜLLER  BLF 5.00HC/06/180F</t>
+    <t xml:space="preserve">250 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 x Pressfit M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 5pin MOLEX Micro-Fit 3.0, 436450500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x Pressfit M8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 4pin MOLEX Micro-Fit 3.0, 430250400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Externí temistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 2pin MOLEX Micro-Fit 3.0, 430250200</t>
   </si>
 </sst>
 </file>
@@ -276,9 +301,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -304,7 +333,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.92"/>
@@ -510,15 +539,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
   </cols>
   <sheetData>
@@ -564,7 +593,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>44</v>
@@ -572,103 +601,103 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>1</v>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B13" s="0" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B16" s="0" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B20" s="0" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>47</v>
@@ -676,33 +705,41 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B28" s="0" t="s">
         <v>41</v>
       </c>
     </row>
@@ -722,15 +759,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
   </cols>
   <sheetData>
@@ -776,7 +813,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>53</v>
@@ -784,103 +821,103 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>55</v>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="0" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="0" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="0" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>56</v>
@@ -888,42 +925,254 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="B26" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="B27" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/site/Manual/source/CZ/tab/parameters.xlsx
+++ b/site/Manual/source/CZ/tab/parameters.xlsx
@@ -5,13 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="TGZ-D-48-50_100" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="TGZ-S-48-50_100" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="TGZ-S-48-100_250" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="TGZ-S-48-100_300" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="TGZ-S-48-100_425" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="TGZ-S-230-5_15" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="TGZ-D-320-5_10" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="TGZ-D-320-5_15" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="88">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -224,6 +229,69 @@
   </si>
   <si>
     <t xml:space="preserve">1 x 2pin MOLEX Micro-Fit 3.0, 430250200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">425 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230 VAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,6 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 10pin WEIDMÜLLER  BLZP 5.08HC/10/180  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 5pin WEIDMÜLLER  BCZ 3.81/05/180  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 6pin WEIDMÜLLER  SLS 5.08/06/180FI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 8pin WEIDMÜLLER  B2CF 3.50/08/180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 12pin WEIDMÜLLER  B2CF 3.50/12/180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMI FILTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doporučený filtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLMO62P72-04 nebo NLA062P72-04  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">140-320 VDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,6 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 10 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 3pin PHOENIX  PC 5/ 3-STCL1-7,62  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 6pin WEIDMÜLLER  SLS 5.08/06/180FI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 8pin WEIDMÜLLER  B2CF 3.50/08/180</t>
   </si>
 </sst>
 </file>
@@ -301,13 +369,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -333,7 +405,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.92"/>
@@ -545,7 +617,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
@@ -765,7 +837,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
@@ -973,11 +1045,11 @@
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
@@ -1173,6 +1245,1087 @@
       </c>
       <c r="B28" s="0" t="s">
         <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
